--- a/ig/sd-concept-map-statut-de-lessai/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-concept-map-statut-de-lessai/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T17:10:58+00:00</t>
+    <t>2023-07-27T07:31:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t/>
   </si>
   <si>
-    <t>INIT</t>
+    <t>a-demarrer</t>
   </si>
   <si>
     <t>equivalent</t>
@@ -117,13 +117,13 @@
     <t>approved</t>
   </si>
   <si>
-    <t>RUN</t>
+    <t>en-cours</t>
   </si>
   <si>
     <t>active</t>
   </si>
   <si>
-    <t>WAIT</t>
+    <t>suspendue</t>
   </si>
   <si>
     <t>temporarily-closed-to-accrual</t>
@@ -132,28 +132,28 @@
     <t>temporarily-closed-to-accrual-and-intervention</t>
   </si>
   <si>
-    <t>PROL</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>TERM</t>
+    <t>prolongee-prorogee</t>
+  </si>
+  <si>
+    <t>expiree</t>
+  </si>
+  <si>
+    <t>terminee</t>
   </si>
   <si>
     <t>completed</t>
   </si>
   <si>
-    <t>EARLY</t>
+    <t>terminee-fin-anticipee</t>
   </si>
   <si>
     <t>administratively-completed</t>
   </si>
   <si>
-    <t>ARCH</t>
-  </si>
-  <si>
-    <t>DISC</t>
+    <t>archivee</t>
+  </si>
+  <si>
+    <t>abandonnee</t>
   </si>
   <si>
     <t>withdrawn</t>
